--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -576,7 +577,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -618,7 +619,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -656,7 +657,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -694,7 +695,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -732,7 +733,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -770,7 +771,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -808,7 +809,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -852,7 +853,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -926,7 +927,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -966,7 +967,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1002,7 +1003,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1040,7 +1041,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1078,7 +1079,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1116,7 +1117,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1158,7 +1159,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1200,7 +1201,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1262,7 +1263,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1304,7 +1305,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1342,7 +1343,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1380,7 +1381,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1456,7 +1457,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1494,7 +1495,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1538,7 +1539,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1576,7 +1577,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1612,7 +1613,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1652,7 +1653,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1688,7 +1689,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1726,7 +1727,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1764,7 +1765,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1844,7 +1845,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1886,7 +1887,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1948,7 +1949,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1990,7 +1991,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2028,7 +2029,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2066,7 +2067,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2104,7 +2105,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2142,7 +2143,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2180,7 +2181,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2224,7 +2225,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2262,7 +2263,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2298,7 +2299,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2338,7 +2339,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2374,7 +2375,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2412,7 +2413,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2450,7 +2451,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2488,7 +2489,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2530,7 +2531,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2572,7 +2573,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2634,7 +2635,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2676,7 +2677,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2714,7 +2715,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2752,7 +2753,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2790,7 +2791,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2828,7 +2829,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2866,7 +2867,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2910,7 +2911,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2948,7 +2949,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2984,7 +2985,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3024,7 +3025,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3060,7 +3061,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3098,7 +3099,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3136,7 +3137,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3174,7 +3175,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3216,7 +3217,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3258,7 +3259,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3320,7 +3321,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3362,7 +3363,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3400,7 +3401,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3438,7 +3439,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3476,7 +3477,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3514,7 +3515,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3552,7 +3553,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3596,7 +3597,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3634,7 +3635,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3670,7 +3671,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3710,7 +3711,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3746,7 +3747,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3784,7 +3785,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3822,7 +3823,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3860,7 +3861,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3902,7 +3903,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3944,7 +3945,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -4006,7 +4007,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4048,7 +4049,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4086,7 +4087,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4124,7 +4125,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4162,7 +4163,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4200,7 +4201,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4238,7 +4239,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4282,7 +4283,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4320,7 +4321,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4356,7 +4357,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4396,7 +4397,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4432,7 +4433,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4470,7 +4471,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4508,7 +4509,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4546,7 +4547,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4588,7 +4589,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4630,7 +4631,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4692,7 +4693,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4734,7 +4735,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4772,7 +4773,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4810,7 +4811,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4886,7 +4887,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4924,7 +4925,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4968,7 +4969,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5006,7 +5007,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5042,7 +5043,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5082,7 +5083,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5118,7 +5119,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5156,7 +5157,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5232,7 +5233,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -5274,7 +5275,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -5316,7 +5317,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -5378,7 +5379,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5420,7 +5421,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5458,7 +5459,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5496,7 +5497,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5534,7 +5535,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5572,7 +5573,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5610,7 +5611,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5654,7 +5655,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5692,7 +5693,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5728,7 +5729,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5768,7 +5769,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5804,7 +5805,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5842,7 +5843,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5880,7 +5881,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5918,7 +5919,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -5960,7 +5961,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -6002,7 +6003,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6064,7 +6065,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6106,7 +6107,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6144,7 +6145,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6182,7 +6183,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6220,7 +6221,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6258,7 +6259,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6296,7 +6297,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6340,7 +6341,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6378,7 +6379,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6414,7 +6415,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6454,7 +6455,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6490,7 +6491,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6528,7 +6529,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6566,7 +6567,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6604,7 +6605,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -6646,7 +6647,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -6688,7 +6689,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6750,7 +6751,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6792,7 +6793,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6830,7 +6831,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6868,7 +6869,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6906,7 +6907,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6944,7 +6945,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6982,7 +6983,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7026,7 +7027,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7064,7 +7065,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7100,7 +7101,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7140,7 +7141,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7176,7 +7177,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7214,7 +7215,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7252,7 +7253,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7290,7 +7291,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7332,7 +7333,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -7374,7 +7375,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -7436,7 +7437,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7478,7 +7479,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7516,7 +7517,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7554,7 +7555,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7592,7 +7593,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7630,7 +7631,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7668,7 +7669,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7712,7 +7713,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7750,7 +7751,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7786,7 +7787,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7826,7 +7827,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7862,7 +7863,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7900,7 +7901,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7938,7 +7939,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7976,7 +7977,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -8018,7 +8019,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -8060,7 +8061,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -8122,7 +8123,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8164,7 +8165,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8202,7 +8203,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8240,7 +8241,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8278,7 +8279,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8316,7 +8317,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8354,7 +8355,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8398,7 +8399,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8436,7 +8437,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8472,7 +8473,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8512,7 +8513,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8548,7 +8549,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8586,7 +8587,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8624,7 +8625,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8662,7 +8663,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -8704,7 +8705,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C204" t="inlineStr">
@@ -8746,7 +8747,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C205" t="inlineStr">
@@ -8808,7 +8809,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8850,7 +8851,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8888,7 +8889,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8926,7 +8927,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8964,7 +8965,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9002,7 +9003,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9040,7 +9041,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9084,7 +9085,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9122,7 +9123,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9158,7 +9159,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9198,7 +9199,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9234,7 +9235,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9272,7 +9273,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9310,7 +9311,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9348,7 +9349,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -9390,7 +9391,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C221" t="inlineStr">
@@ -9432,7 +9433,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C222" t="inlineStr">
@@ -9494,7 +9495,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9536,7 +9537,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9574,7 +9575,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9612,7 +9613,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9650,7 +9651,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9688,7 +9689,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9726,7 +9727,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9770,7 +9771,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9808,7 +9809,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9844,7 +9845,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9884,7 +9885,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9920,7 +9921,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9958,7 +9959,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9996,7 +9997,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10034,7 +10035,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C237" t="inlineStr">
@@ -10076,7 +10077,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C238" t="inlineStr">
@@ -10118,7 +10119,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C239" t="inlineStr">
@@ -10180,7 +10181,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10222,7 +10223,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10260,7 +10261,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10298,7 +10299,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -10336,7 +10337,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10374,7 +10375,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -10412,7 +10413,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -10456,7 +10457,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -10494,7 +10495,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -10530,7 +10531,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -10570,7 +10571,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -10606,7 +10607,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -10644,7 +10645,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10682,7 +10683,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10720,7 +10721,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C254" t="inlineStr">
@@ -10762,7 +10763,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C255" t="inlineStr">
@@ -10804,7 +10805,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10866,7 +10867,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10908,7 +10909,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10946,7 +10947,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10984,7 +10985,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -11022,7 +11023,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -11060,7 +11061,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -11098,7 +11099,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -11142,7 +11143,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -11180,7 +11181,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -11216,7 +11217,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -11256,7 +11257,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -11292,7 +11293,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -11330,7 +11331,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -11368,7 +11369,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -11406,7 +11407,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -11448,7 +11449,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -11490,7 +11491,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -11552,7 +11553,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -11594,7 +11595,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -11632,7 +11633,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -11670,7 +11671,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -11708,7 +11709,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11746,7 +11747,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -11784,7 +11785,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11828,7 +11829,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11866,7 +11867,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11902,7 +11903,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11942,7 +11943,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11978,7 +11979,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -12016,7 +12017,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -12054,7 +12055,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -12092,7 +12093,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -12134,7 +12135,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -12176,7 +12177,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C290" t="inlineStr">
@@ -12238,7 +12239,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -12280,7 +12281,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -12318,7 +12319,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -12356,7 +12357,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -12394,7 +12395,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -12432,7 +12433,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -12470,7 +12471,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -12514,7 +12515,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -12552,7 +12553,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -12588,7 +12589,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -12628,7 +12629,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -12664,7 +12665,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -12702,7 +12703,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -12740,7 +12741,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -12778,7 +12779,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -12820,7 +12821,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C306" t="inlineStr">
@@ -12862,7 +12863,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C307" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +501,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -577,7 +576,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -619,7 +618,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -657,7 +656,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -695,7 +694,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -733,7 +732,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -771,7 +770,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -809,7 +808,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -853,7 +852,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -891,7 +890,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -927,7 +926,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -967,7 +966,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1003,7 +1002,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1041,7 +1040,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1079,7 +1078,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1117,7 +1116,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1159,7 +1158,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1201,7 +1200,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1263,7 +1262,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1305,7 +1304,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1343,7 +1342,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1381,7 +1380,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1419,7 +1418,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1457,7 +1456,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1495,7 +1494,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1539,7 +1538,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1577,7 +1576,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1613,7 +1612,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1653,7 +1652,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1689,7 +1688,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1727,7 +1726,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1765,7 +1764,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1803,7 +1802,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1845,7 +1844,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1887,7 +1886,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1949,7 +1948,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1991,7 +1990,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2029,7 +2028,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2067,7 +2066,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2105,7 +2104,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2143,7 +2142,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2181,7 +2180,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2225,7 +2224,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2263,7 +2262,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2299,7 +2298,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2339,7 +2338,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2375,7 +2374,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2413,7 +2412,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2451,7 +2450,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2489,7 +2488,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2531,7 +2530,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2573,7 +2572,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2635,7 +2634,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2677,7 +2676,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2715,7 +2714,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2753,7 +2752,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2791,7 +2790,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2829,7 +2828,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2867,7 +2866,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2911,7 +2910,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2949,7 +2948,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2985,7 +2984,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3025,7 +3024,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3061,7 +3060,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3099,7 +3098,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3137,7 +3136,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3175,7 +3174,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3217,7 +3216,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3259,7 +3258,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3321,7 +3320,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3363,7 +3362,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3401,7 +3400,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3439,7 +3438,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3477,7 +3476,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3515,7 +3514,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3553,7 +3552,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3597,7 +3596,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3635,7 +3634,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3671,7 +3670,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3711,7 +3710,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3747,7 +3746,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3785,7 +3784,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3823,7 +3822,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3861,7 +3860,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3903,7 +3902,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3945,7 +3944,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -4007,7 +4006,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4049,7 +4048,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4087,7 +4086,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4125,7 +4124,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4163,7 +4162,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4201,7 +4200,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4239,7 +4238,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4283,7 +4282,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4321,7 +4320,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4357,7 +4356,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4397,7 +4396,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4433,7 +4432,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4471,7 +4470,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4509,7 +4508,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4547,7 +4546,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4589,7 +4588,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4631,7 +4630,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4693,7 +4692,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4735,7 +4734,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4773,7 +4772,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4811,7 +4810,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4849,7 +4848,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4887,7 +4886,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4925,7 +4924,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4969,7 +4968,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5007,7 +5006,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5043,7 +5042,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5083,7 +5082,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5119,7 +5118,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5157,7 +5156,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5195,7 +5194,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5233,7 +5232,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -5275,7 +5274,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -5317,7 +5316,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -5379,7 +5378,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5421,7 +5420,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5459,7 +5458,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5497,7 +5496,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5535,7 +5534,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5573,7 +5572,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5611,7 +5610,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5655,7 +5654,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5693,7 +5692,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5729,7 +5728,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5769,7 +5768,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5805,7 +5804,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5843,7 +5842,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5881,7 +5880,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5919,7 +5918,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -5961,7 +5960,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -6003,7 +6002,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6065,7 +6064,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6107,7 +6106,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6145,7 +6144,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6183,7 +6182,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6221,7 +6220,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6259,7 +6258,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6297,7 +6296,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6341,7 +6340,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6379,7 +6378,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6415,7 +6414,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6455,7 +6454,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6491,7 +6490,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6529,7 +6528,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6567,7 +6566,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6605,7 +6604,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -6647,7 +6646,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -6689,7 +6688,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6751,7 +6750,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6793,7 +6792,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6831,7 +6830,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6869,7 +6868,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6907,7 +6906,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6945,7 +6944,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6983,7 +6982,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7027,7 +7026,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7065,7 +7064,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7101,7 +7100,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7141,7 +7140,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7177,7 +7176,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7215,7 +7214,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7253,7 +7252,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7291,7 +7290,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7333,7 +7332,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -7375,7 +7374,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -7437,7 +7436,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7479,7 +7478,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7517,7 +7516,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7555,7 +7554,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7593,7 +7592,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7631,7 +7630,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7669,7 +7668,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7713,7 +7712,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7751,7 +7750,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7787,7 +7786,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7827,7 +7826,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7863,7 +7862,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7901,7 +7900,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7939,7 +7938,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7977,7 +7976,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -8019,7 +8018,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -8061,7 +8060,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -8123,7 +8122,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8165,7 +8164,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8203,7 +8202,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8241,7 +8240,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8279,7 +8278,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8317,7 +8316,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8355,7 +8354,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8399,7 +8398,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8437,7 +8436,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8473,7 +8472,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8513,7 +8512,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8549,7 +8548,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8587,7 +8586,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8625,7 +8624,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8663,7 +8662,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -8705,7 +8704,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C204" t="inlineStr">
@@ -8747,7 +8746,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C205" t="inlineStr">
@@ -8809,7 +8808,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8851,7 +8850,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8889,7 +8888,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8927,7 +8926,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8965,7 +8964,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9003,7 +9002,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9041,7 +9040,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9085,7 +9084,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9123,7 +9122,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9159,7 +9158,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9199,7 +9198,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9235,7 +9234,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9273,7 +9272,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9311,7 +9310,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9349,7 +9348,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -9391,7 +9390,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C221" t="inlineStr">
@@ -9433,7 +9432,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C222" t="inlineStr">
@@ -9495,7 +9494,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9537,7 +9536,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9575,7 +9574,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9613,7 +9612,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9651,7 +9650,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9689,7 +9688,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9727,7 +9726,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9771,7 +9770,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9809,7 +9808,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9845,7 +9844,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9885,7 +9884,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9921,7 +9920,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9959,7 +9958,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9997,7 +9996,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10035,7 +10034,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C237" t="inlineStr">
@@ -10077,7 +10076,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C238" t="inlineStr">
@@ -10119,7 +10118,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C239" t="inlineStr">
@@ -10181,7 +10180,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10223,7 +10222,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10261,7 +10260,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10299,7 +10298,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -10337,7 +10336,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10375,7 +10374,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -10413,7 +10412,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -10457,7 +10456,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -10495,7 +10494,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -10531,7 +10530,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -10571,7 +10570,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -10607,7 +10606,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -10645,7 +10644,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10683,7 +10682,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10721,7 +10720,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C254" t="inlineStr">
@@ -10763,7 +10762,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C255" t="inlineStr">
@@ -10805,7 +10804,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10867,7 +10866,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10909,7 +10908,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10947,7 +10946,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10985,7 +10984,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -11023,7 +11022,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -11061,7 +11060,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -11099,7 +11098,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -11143,7 +11142,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -11181,7 +11180,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -11217,7 +11216,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -11257,7 +11256,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -11293,7 +11292,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -11331,7 +11330,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -11369,7 +11368,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -11407,7 +11406,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -11449,7 +11448,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -11491,7 +11490,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -11553,7 +11552,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -11595,7 +11594,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -11633,7 +11632,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -11671,7 +11670,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -11709,7 +11708,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11747,7 +11746,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -11785,7 +11784,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11829,7 +11828,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11867,7 +11866,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11903,7 +11902,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11943,7 +11942,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11979,7 +11978,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -12017,7 +12016,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -12055,7 +12054,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -12093,7 +12092,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -12135,7 +12134,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -12177,7 +12176,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C290" t="inlineStr">
@@ -12239,7 +12238,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -12281,7 +12280,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -12319,7 +12318,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -12357,7 +12356,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>42932</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -12395,7 +12394,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -12433,7 +12432,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -12471,7 +12470,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -12515,7 +12514,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -12553,7 +12552,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -12589,7 +12588,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B300" s="4" t="n">
+      <c r="B300" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -12629,7 +12628,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B301" s="4" t="n">
+      <c r="B301" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -12665,7 +12664,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B302" s="4" t="n">
+      <c r="B302" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -12703,7 +12702,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B303" s="4" t="n">
+      <c r="B303" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -12741,7 +12740,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B304" s="4" t="n">
+      <c r="B304" s="3" t="n">
         <v>43087</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -12779,7 +12778,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B305" s="4" t="n">
+      <c r="B305" s="3" t="n">
         <v>43104</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -12821,7 +12820,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B306" s="4" t="n">
+      <c r="B306" s="3" t="n">
         <v>43105</v>
       </c>
       <c r="C306" t="inlineStr">
@@ -12863,7 +12862,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B307" s="4" t="n">
+      <c r="B307" s="3" t="n">
         <v>43123</v>
       </c>
       <c r="C307" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -576,7 +577,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -618,7 +619,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -656,7 +657,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -694,7 +695,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -732,7 +733,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -770,7 +771,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -808,7 +809,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -852,7 +853,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -926,7 +927,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -966,7 +967,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1002,7 +1003,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1040,7 +1041,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1078,7 +1079,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1116,7 +1117,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1158,7 +1159,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1200,7 +1201,7 @@
           <t>FAR HYC W17-02-1CvCordiale</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1262,7 +1263,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1304,7 +1305,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1342,7 +1343,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1380,7 +1381,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1456,7 +1457,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1494,7 +1495,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1538,7 +1539,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1576,7 +1577,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1612,7 +1613,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1652,7 +1653,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1688,7 +1689,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1726,7 +1727,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1764,7 +1765,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1844,7 +1845,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1886,7 +1887,7 @@
           <t>FAR HYC W17-02-1CvConqueror</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1948,7 +1949,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1990,7 +1991,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2028,7 +2029,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2066,7 +2067,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2104,7 +2105,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2142,7 +2143,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2180,7 +2181,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2224,7 +2225,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2262,7 +2263,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2298,7 +2299,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2338,7 +2339,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2374,7 +2375,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2412,7 +2413,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2450,7 +2451,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2488,7 +2489,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2530,7 +2531,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2572,7 +2573,7 @@
           <t>FAR HYC W17-02-1CvAnapurna</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2634,7 +2635,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2676,7 +2677,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2714,7 +2715,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2752,7 +2753,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2790,7 +2791,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2828,7 +2829,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2866,7 +2867,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2910,7 +2911,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2948,7 +2949,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2984,7 +2985,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3024,7 +3025,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3060,7 +3061,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3098,7 +3099,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3136,7 +3137,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3174,7 +3175,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3216,7 +3217,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3258,7 +3259,7 @@
           <t>FAR HYC W17-02-1CvManning</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3320,7 +3321,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3362,7 +3363,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3400,7 +3401,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3438,7 +3439,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3476,7 +3477,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3514,7 +3515,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3552,7 +3553,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3596,7 +3597,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3634,7 +3635,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3670,7 +3671,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3710,7 +3711,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3746,7 +3747,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3784,7 +3785,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3822,7 +3823,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3860,7 +3861,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3902,7 +3903,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3944,7 +3945,7 @@
           <t>FAR HYC W17-02-1CvEinstein</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -4006,7 +4007,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4048,7 +4049,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4086,7 +4087,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4124,7 +4125,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4162,7 +4163,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4200,7 +4201,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4238,7 +4239,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4282,7 +4283,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4320,7 +4321,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4356,7 +4357,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4396,7 +4397,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4432,7 +4433,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4470,7 +4471,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4508,7 +4509,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4546,7 +4547,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4588,7 +4589,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4630,7 +4631,7 @@
           <t>FAR HYC W17-02-1CvBA 26.35</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4692,7 +4693,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4734,7 +4735,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4772,7 +4773,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4810,7 +4811,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4886,7 +4887,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4924,7 +4925,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4968,7 +4969,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5006,7 +5007,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5042,7 +5043,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5082,7 +5083,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5118,7 +5119,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5156,7 +5157,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5232,7 +5233,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -5274,7 +5275,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -5316,7 +5317,7 @@
           <t>FAR HYC W17-02-1CvAccroc</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -5378,7 +5379,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5420,7 +5421,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5458,7 +5459,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5496,7 +5497,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5534,7 +5535,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5572,7 +5573,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5610,7 +5611,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5654,7 +5655,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5692,7 +5693,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5728,7 +5729,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5768,7 +5769,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5804,7 +5805,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5842,7 +5843,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5880,7 +5881,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5918,7 +5919,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -5960,7 +5961,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -6002,7 +6003,7 @@
           <t>FAR HYC W17-02-1CvAsano</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6064,7 +6065,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6106,7 +6107,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6144,7 +6145,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6182,7 +6183,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6220,7 +6221,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6258,7 +6259,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6296,7 +6297,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6340,7 +6341,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6378,7 +6379,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6414,7 +6415,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6454,7 +6455,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6490,7 +6491,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6528,7 +6529,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6566,7 +6567,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6604,7 +6605,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -6646,7 +6647,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -6688,7 +6689,7 @@
           <t>FAR HYC W17-02-1CvRelay</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6750,7 +6751,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6792,7 +6793,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6830,7 +6831,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6868,7 +6869,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6906,7 +6907,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6944,7 +6945,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6982,7 +6983,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7026,7 +7027,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7064,7 +7065,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7100,7 +7101,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7140,7 +7141,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7176,7 +7177,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7214,7 +7215,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7252,7 +7253,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7290,7 +7291,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7332,7 +7333,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -7374,7 +7375,7 @@
           <t>FAR HYC W17-02-1CvHereford</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -7436,7 +7437,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7478,7 +7479,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7516,7 +7517,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7554,7 +7555,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7592,7 +7593,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7630,7 +7631,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7668,7 +7669,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7712,7 +7713,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7750,7 +7751,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7786,7 +7787,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7826,7 +7827,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7862,7 +7863,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7900,7 +7901,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7938,7 +7939,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7976,7 +7977,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -8018,7 +8019,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -8060,7 +8061,7 @@
           <t>FAR HYC W17-02-1CvCalabro</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -8122,7 +8123,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8164,7 +8165,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8202,7 +8203,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8240,7 +8241,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8278,7 +8279,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8316,7 +8317,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8354,7 +8355,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8398,7 +8399,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8436,7 +8437,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8472,7 +8473,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8512,7 +8513,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8548,7 +8549,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8586,7 +8587,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8624,7 +8625,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8662,7 +8663,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -8704,7 +8705,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C204" t="inlineStr">
@@ -8746,7 +8747,7 @@
           <t>FAR HYC W17-02-1CvXi19</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C205" t="inlineStr">
@@ -8808,7 +8809,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8850,7 +8851,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8888,7 +8889,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8926,7 +8927,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8964,7 +8965,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9002,7 +9003,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9040,7 +9041,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9084,7 +9085,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9122,7 +9123,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9158,7 +9159,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9198,7 +9199,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9234,7 +9235,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9272,7 +9273,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9310,7 +9311,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9348,7 +9349,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -9390,7 +9391,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C221" t="inlineStr">
@@ -9432,7 +9433,7 @@
           <t>FAR HYC W17-02-1CvAGTW-001</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C222" t="inlineStr">
@@ -9494,7 +9495,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9536,7 +9537,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9574,7 +9575,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9612,7 +9613,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9650,7 +9651,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9688,7 +9689,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9726,7 +9727,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9770,7 +9771,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9808,7 +9809,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9844,7 +9845,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9884,7 +9885,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9920,7 +9921,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9958,7 +9959,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9996,7 +9997,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10034,7 +10035,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C237" t="inlineStr">
@@ -10076,7 +10077,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C238" t="inlineStr">
@@ -10118,7 +10119,7 @@
           <t>FAR HYC W17-02-1CvMercedes</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C239" t="inlineStr">
@@ -10180,7 +10181,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10222,7 +10223,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10260,7 +10261,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10298,7 +10299,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -10336,7 +10337,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10374,7 +10375,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -10412,7 +10413,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -10456,7 +10457,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -10494,7 +10495,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -10530,7 +10531,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -10570,7 +10571,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -10606,7 +10607,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -10644,7 +10645,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10682,7 +10683,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10720,7 +10721,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C254" t="inlineStr">
@@ -10762,7 +10763,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C255" t="inlineStr">
@@ -10804,7 +10805,7 @@
           <t>FAR HYC W17-02-1CvGenius</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10866,7 +10867,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10908,7 +10909,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10946,7 +10947,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10984,7 +10985,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -11022,7 +11023,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -11060,7 +11061,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -11098,7 +11099,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -11142,7 +11143,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -11180,7 +11181,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -11216,7 +11217,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -11256,7 +11257,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -11292,7 +11293,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -11330,7 +11331,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -11368,7 +11369,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -11406,7 +11407,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -11448,7 +11449,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -11490,7 +11491,7 @@
           <t>FAR HYC W17-02-1CvViscount</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -11552,7 +11553,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -11594,7 +11595,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -11632,7 +11633,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -11670,7 +11671,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -11708,7 +11709,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11746,7 +11747,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -11784,7 +11785,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11828,7 +11829,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11866,7 +11867,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11902,7 +11903,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11942,7 +11943,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11978,7 +11979,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -12016,7 +12017,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -12054,7 +12055,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -12092,7 +12093,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -12134,7 +12135,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -12176,7 +12177,7 @@
           <t>FAR HYC W17-02-1CvOakley</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C290" t="inlineStr">
@@ -12238,7 +12239,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -12280,7 +12281,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -12318,7 +12319,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -12356,7 +12357,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42932</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -12394,7 +12395,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -12432,7 +12433,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -12470,7 +12471,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -12514,7 +12515,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -12552,7 +12553,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -12588,7 +12589,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -12628,7 +12629,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -12664,7 +12665,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -12702,7 +12703,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -12740,7 +12741,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43087</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -12778,7 +12779,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43104</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -12820,7 +12821,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43105</v>
       </c>
       <c r="C306" t="inlineStr">
@@ -12862,7 +12863,7 @@
           <t>FAR HYC W17-02-1CvRevenue</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43123</v>
       </c>
       <c r="C307" t="inlineStr">
